--- a/artfynd/A 14183-2021 artfynd.xlsx
+++ b/artfynd/A 14183-2021 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY106"/>
+  <dimension ref="A1:AY107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11679,7 +11679,7 @@
         <v>114462187</v>
       </c>
       <c r="B95" t="n">
-        <v>80013</v>
+        <v>80219</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -11687,21 +11687,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Liten aspgelélav</t>
+          <t>Läderlappslav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Collema curtisporum</t>
+          <t>Collema nigrescens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Huds.) DC.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -12947,6 +12947,113 @@
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>131081607</v>
+      </c>
+      <c r="B107" t="n">
+        <v>57725</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>102621</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sparvuggla</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Glaucidium passerinum</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Ottsjö, Hustjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>404785</v>
+      </c>
+      <c r="R107" t="n">
+        <v>7012359</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Undersåker</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Matilda Pettersson</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>Matilda Pettersson</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14183-2021 artfynd.xlsx
+++ b/artfynd/A 14183-2021 artfynd.xlsx
@@ -11679,7 +11679,7 @@
         <v>114462187</v>
       </c>
       <c r="B95" t="n">
-        <v>80219</v>
+        <v>80220</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
